--- a/Data/Excel/FCFS/5.xlsx
+++ b/Data/Excel/FCFS/5.xlsx
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F88"/>
+  <dimension ref="A1:F100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,7 +461,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>53.71</v>
+        <v>51.7</v>
       </c>
       <c r="C2" t="n">
         <v>-2</v>
@@ -481,7 +481,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>53.18</v>
+        <v>51.16</v>
       </c>
       <c r="C3" t="n">
         <v>-2</v>
@@ -501,7 +501,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>52.64</v>
+        <v>50.63</v>
       </c>
       <c r="C4" t="n">
         <v>-2</v>
@@ -521,7 +521,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>52.11</v>
+        <v>50.1</v>
       </c>
       <c r="C5" t="n">
         <v>-2</v>
@@ -541,7 +541,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>51.58</v>
+        <v>49.56</v>
       </c>
       <c r="C6" t="n">
         <v>-2</v>
@@ -561,7 +561,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>51.04</v>
+        <v>49.03</v>
       </c>
       <c r="C7" t="n">
         <v>-2</v>
@@ -581,7 +581,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>50.51</v>
+        <v>48.5</v>
       </c>
       <c r="C8" t="n">
         <v>-2</v>
@@ -601,7 +601,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>49.98</v>
+        <v>47.96</v>
       </c>
       <c r="C9" t="n">
         <v>-2</v>
@@ -621,7 +621,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>49.44</v>
+        <v>47.43</v>
       </c>
       <c r="C10" t="n">
         <v>-2</v>
@@ -641,7 +641,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>48.91</v>
+        <v>46.9</v>
       </c>
       <c r="C11" t="n">
         <v>-2</v>
@@ -661,7 +661,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>48.38</v>
+        <v>46.36</v>
       </c>
       <c r="C12" t="n">
         <v>-2</v>
@@ -681,7 +681,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>47.84</v>
+        <v>45.83</v>
       </c>
       <c r="C13" t="n">
         <v>-2</v>
@@ -701,7 +701,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>47.31</v>
+        <v>45.3</v>
       </c>
       <c r="C14" t="n">
         <v>-2</v>
@@ -721,7 +721,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>46.78</v>
+        <v>44.76</v>
       </c>
       <c r="C15" t="n">
         <v>-2</v>
@@ -741,7 +741,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>46.24</v>
+        <v>44.23</v>
       </c>
       <c r="C16" t="n">
         <v>-2</v>
@@ -761,7 +761,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>45.71</v>
+        <v>43.7</v>
       </c>
       <c r="C17" t="n">
         <v>-2</v>
@@ -781,7 +781,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>45.18</v>
+        <v>43.16</v>
       </c>
       <c r="C18" t="n">
         <v>-2</v>
@@ -801,7 +801,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>44.64</v>
+        <v>42.63</v>
       </c>
       <c r="C19" t="n">
         <v>-2</v>
@@ -821,7 +821,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>44.11</v>
+        <v>42.1</v>
       </c>
       <c r="C20" t="n">
         <v>-2</v>
@@ -841,7 +841,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>43.58</v>
+        <v>41.56</v>
       </c>
       <c r="C21" t="n">
         <v>-2</v>
@@ -861,7 +861,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>43.04</v>
+        <v>41.03</v>
       </c>
       <c r="C22" t="n">
         <v>-2</v>
@@ -881,7 +881,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>42.51</v>
+        <v>40.5</v>
       </c>
       <c r="C23" t="n">
         <v>-2</v>
@@ -901,7 +901,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>41.98</v>
+        <v>39.96</v>
       </c>
       <c r="C24" t="n">
         <v>-2</v>
@@ -921,7 +921,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>41.44</v>
+        <v>39.43</v>
       </c>
       <c r="C25" t="n">
         <v>-2</v>
@@ -941,7 +941,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>40.91</v>
+        <v>38.9</v>
       </c>
       <c r="C26" t="n">
         <v>-2</v>
@@ -961,7 +961,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>40.38</v>
+        <v>38.36</v>
       </c>
       <c r="C27" t="n">
         <v>-2</v>
@@ -981,7 +981,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>39.84</v>
+        <v>37.83</v>
       </c>
       <c r="C28" t="n">
         <v>-2</v>
@@ -1001,7 +1001,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>39.31</v>
+        <v>37.3</v>
       </c>
       <c r="C29" t="n">
         <v>-2</v>
@@ -1021,7 +1021,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>38.78</v>
+        <v>36.76</v>
       </c>
       <c r="C30" t="n">
         <v>-2</v>
@@ -1041,7 +1041,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>38.24</v>
+        <v>36.23</v>
       </c>
       <c r="C31" t="n">
         <v>-2</v>
@@ -1061,7 +1061,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>37.71</v>
+        <v>35.7</v>
       </c>
       <c r="C32" t="n">
         <v>-2</v>
@@ -1081,7 +1081,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>37.18</v>
+        <v>35.16</v>
       </c>
       <c r="C33" t="n">
         <v>-2</v>
@@ -1101,7 +1101,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>36.64</v>
+        <v>34.63</v>
       </c>
       <c r="C34" t="n">
         <v>-2</v>
@@ -1121,7 +1121,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>36.11</v>
+        <v>34.1</v>
       </c>
       <c r="C35" t="n">
         <v>-2</v>
@@ -1141,7 +1141,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>35.58</v>
+        <v>33.56</v>
       </c>
       <c r="C36" t="n">
         <v>-2</v>
@@ -1161,7 +1161,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>35.04</v>
+        <v>33.03</v>
       </c>
       <c r="C37" t="n">
         <v>-2</v>
@@ -1181,7 +1181,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>34.51</v>
+        <v>32.5</v>
       </c>
       <c r="C38" t="n">
         <v>-2</v>
@@ -1201,7 +1201,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>33.98</v>
+        <v>31.96</v>
       </c>
       <c r="C39" t="n">
         <v>-2</v>
@@ -1221,7 +1221,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>33.44</v>
+        <v>31.43</v>
       </c>
       <c r="C40" t="n">
         <v>-2</v>
@@ -1241,7 +1241,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>32.91</v>
+        <v>30.9</v>
       </c>
       <c r="C41" t="n">
         <v>-2</v>
@@ -1261,7 +1261,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>32.38</v>
+        <v>30.36</v>
       </c>
       <c r="C42" t="n">
         <v>-2</v>
@@ -1281,7 +1281,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>31.84</v>
+        <v>29.83</v>
       </c>
       <c r="C43" t="n">
         <v>-2</v>
@@ -1301,7 +1301,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>31.31</v>
+        <v>29.3</v>
       </c>
       <c r="C44" t="n">
         <v>-2</v>
@@ -1321,7 +1321,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>30.78</v>
+        <v>28.76</v>
       </c>
       <c r="C45" t="n">
         <v>-2</v>
@@ -1341,7 +1341,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>30.24</v>
+        <v>28.23</v>
       </c>
       <c r="C46" t="n">
         <v>-2</v>
@@ -1361,7 +1361,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>29.71</v>
+        <v>27.7</v>
       </c>
       <c r="C47" t="n">
         <v>-2</v>
@@ -1381,7 +1381,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>29.18</v>
+        <v>27.16</v>
       </c>
       <c r="C48" t="n">
         <v>-2</v>
@@ -1401,7 +1401,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>28.64</v>
+        <v>26.63</v>
       </c>
       <c r="C49" t="n">
         <v>-2</v>
@@ -1421,7 +1421,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>28.11</v>
+        <v>26.1</v>
       </c>
       <c r="C50" t="n">
         <v>-2</v>
@@ -1441,7 +1441,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>27.58</v>
+        <v>25.56</v>
       </c>
       <c r="C51" t="n">
         <v>-2</v>
@@ -1461,7 +1461,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>27.04</v>
+        <v>25.03</v>
       </c>
       <c r="C52" t="n">
         <v>-2</v>
@@ -1481,7 +1481,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>26.51</v>
+        <v>24.5</v>
       </c>
       <c r="C53" t="n">
         <v>-2</v>
@@ -1501,7 +1501,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>25.98</v>
+        <v>23.96</v>
       </c>
       <c r="C54" t="n">
         <v>-2</v>
@@ -1521,7 +1521,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>25.44</v>
+        <v>23.43</v>
       </c>
       <c r="C55" t="n">
         <v>-2</v>
@@ -1541,7 +1541,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>24.91</v>
+        <v>22.9</v>
       </c>
       <c r="C56" t="n">
         <v>-2</v>
@@ -1561,7 +1561,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>24.38</v>
+        <v>22.36</v>
       </c>
       <c r="C57" t="n">
         <v>-2</v>
@@ -1581,7 +1581,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>23.84</v>
+        <v>21.83</v>
       </c>
       <c r="C58" t="n">
         <v>-2</v>
@@ -1601,7 +1601,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>23.31</v>
+        <v>21.3</v>
       </c>
       <c r="C59" t="n">
         <v>-2</v>
@@ -1621,7 +1621,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>22.78</v>
+        <v>20.76</v>
       </c>
       <c r="C60" t="n">
         <v>-2</v>
@@ -1641,7 +1641,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>22.24</v>
+        <v>20.23</v>
       </c>
       <c r="C61" t="n">
         <v>-2</v>
@@ -1661,7 +1661,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>21.71</v>
+        <v>19.7</v>
       </c>
       <c r="C62" t="n">
         <v>-2</v>
@@ -1681,7 +1681,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>21.18</v>
+        <v>19.16</v>
       </c>
       <c r="C63" t="n">
         <v>-2</v>
@@ -1701,7 +1701,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>20.64</v>
+        <v>18.63</v>
       </c>
       <c r="C64" t="n">
         <v>-2</v>
@@ -1721,7 +1721,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>20.11</v>
+        <v>18.1</v>
       </c>
       <c r="C65" t="n">
         <v>-2</v>
@@ -1741,7 +1741,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>19.58</v>
+        <v>17.56</v>
       </c>
       <c r="C66" t="n">
         <v>-2</v>
@@ -1761,7 +1761,7 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>19.04</v>
+        <v>17.03</v>
       </c>
       <c r="C67" t="n">
         <v>-2</v>
@@ -1781,7 +1781,7 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>18.51</v>
+        <v>16.5</v>
       </c>
       <c r="C68" t="n">
         <v>-2</v>
@@ -1801,7 +1801,7 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>17.98</v>
+        <v>15.96</v>
       </c>
       <c r="C69" t="n">
         <v>-2</v>
@@ -1821,7 +1821,7 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>17.44</v>
+        <v>15.43</v>
       </c>
       <c r="C70" t="n">
         <v>-2</v>
@@ -1841,7 +1841,7 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>16.91</v>
+        <v>14.9</v>
       </c>
       <c r="C71" t="n">
         <v>-2</v>
@@ -1861,7 +1861,7 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>16.38</v>
+        <v>14.36</v>
       </c>
       <c r="C72" t="n">
         <v>-2</v>
@@ -1881,7 +1881,7 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>15.84</v>
+        <v>13.83</v>
       </c>
       <c r="C73" t="n">
         <v>-2</v>
@@ -1901,7 +1901,7 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>15.31</v>
+        <v>13.3</v>
       </c>
       <c r="C74" t="n">
         <v>-2</v>
@@ -1921,16 +1921,16 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>14.78</v>
+        <v>12.77</v>
       </c>
       <c r="C75" t="n">
-        <v>-2</v>
+        <v>-2.06</v>
       </c>
       <c r="D75" t="n">
         <v>8</v>
       </c>
       <c r="E75" t="n">
-        <v>3.14</v>
+        <v>3.17</v>
       </c>
       <c r="F75" t="b">
         <v>0</v>
@@ -1941,16 +1941,16 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>14.24</v>
+        <v>12.23</v>
       </c>
       <c r="C76" t="n">
-        <v>-2</v>
+        <v>-2.08</v>
       </c>
       <c r="D76" t="n">
         <v>8</v>
       </c>
       <c r="E76" t="n">
-        <v>3.14</v>
+        <v>3.17</v>
       </c>
       <c r="F76" t="b">
         <v>0</v>
@@ -1961,16 +1961,16 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>13.71</v>
+        <v>11.7</v>
       </c>
       <c r="C77" t="n">
-        <v>-2</v>
+        <v>-2.08</v>
       </c>
       <c r="D77" t="n">
         <v>8</v>
       </c>
       <c r="E77" t="n">
-        <v>3.14</v>
+        <v>3.16</v>
       </c>
       <c r="F77" t="b">
         <v>0</v>
@@ -1981,16 +1981,16 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>13.18</v>
+        <v>11.17</v>
       </c>
       <c r="C78" t="n">
-        <v>-2</v>
+        <v>-2.05</v>
       </c>
       <c r="D78" t="n">
         <v>8</v>
       </c>
       <c r="E78" t="n">
-        <v>3.14</v>
+        <v>3.15</v>
       </c>
       <c r="F78" t="b">
         <v>0</v>
@@ -2001,16 +2001,16 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>12.64</v>
+        <v>10.64</v>
       </c>
       <c r="C79" t="n">
-        <v>-2.06</v>
+        <v>-2</v>
       </c>
       <c r="D79" t="n">
         <v>8</v>
       </c>
       <c r="E79" t="n">
-        <v>3.16</v>
+        <v>3.12</v>
       </c>
       <c r="F79" t="b">
         <v>0</v>
@@ -2021,16 +2021,16 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>12.11</v>
+        <v>10.11</v>
       </c>
       <c r="C80" t="n">
-        <v>-2.07</v>
+        <v>-1.93</v>
       </c>
       <c r="D80" t="n">
         <v>8</v>
       </c>
       <c r="E80" t="n">
-        <v>3.17</v>
+        <v>3.1</v>
       </c>
       <c r="F80" t="b">
         <v>0</v>
@@ -2041,16 +2041,16 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>11.58</v>
+        <v>9.58</v>
       </c>
       <c r="C81" t="n">
-        <v>-2.07</v>
+        <v>-1.84</v>
       </c>
       <c r="D81" t="n">
         <v>8</v>
       </c>
       <c r="E81" t="n">
-        <v>3.16</v>
+        <v>3.07</v>
       </c>
       <c r="F81" t="b">
         <v>0</v>
@@ -2061,16 +2061,16 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>11.05</v>
+        <v>9.06</v>
       </c>
       <c r="C82" t="n">
-        <v>-2.03</v>
+        <v>-1.73</v>
       </c>
       <c r="D82" t="n">
         <v>8</v>
       </c>
       <c r="E82" t="n">
-        <v>3.14</v>
+        <v>3.04</v>
       </c>
       <c r="F82" t="b">
         <v>0</v>
@@ -2081,16 +2081,16 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>10.52</v>
+        <v>8.539999999999999</v>
       </c>
       <c r="C83" t="n">
-        <v>-1.98</v>
+        <v>-1.6</v>
       </c>
       <c r="D83" t="n">
         <v>8</v>
       </c>
       <c r="E83" t="n">
-        <v>3.12</v>
+        <v>3.01</v>
       </c>
       <c r="F83" t="b">
         <v>0</v>
@@ -2101,16 +2101,16 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>9.99</v>
+        <v>8.029999999999999</v>
       </c>
       <c r="C84" t="n">
-        <v>-1.91</v>
+        <v>-1.46</v>
       </c>
       <c r="D84" t="n">
         <v>8</v>
       </c>
       <c r="E84" t="n">
-        <v>3.09</v>
+        <v>2.98</v>
       </c>
       <c r="F84" t="b">
         <v>0</v>
@@ -2121,16 +2121,16 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>9.460000000000001</v>
+        <v>7.52</v>
       </c>
       <c r="C85" t="n">
-        <v>-1.81</v>
+        <v>-1.3</v>
       </c>
       <c r="D85" t="n">
-        <v>7.6</v>
+        <v>8</v>
       </c>
       <c r="E85" t="n">
-        <v>3.07</v>
+        <v>2.95</v>
       </c>
       <c r="F85" t="b">
         <v>0</v>
@@ -2141,16 +2141,16 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>8.970000000000001</v>
+        <v>7.02</v>
       </c>
       <c r="C86" t="n">
-        <v>-1.71</v>
+        <v>-1.11</v>
       </c>
       <c r="D86" t="n">
-        <v>7.2</v>
+        <v>8</v>
       </c>
       <c r="E86" t="n">
-        <v>3.04</v>
+        <v>2.92</v>
       </c>
       <c r="F86" t="b">
         <v>0</v>
@@ -2161,16 +2161,16 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>8.5</v>
+        <v>6.52</v>
       </c>
       <c r="C87" t="n">
-        <v>-1.59</v>
+        <v>-0.91</v>
       </c>
       <c r="D87" t="n">
-        <v>6.8</v>
+        <v>8</v>
       </c>
       <c r="E87" t="n">
-        <v>3.01</v>
+        <v>2.88</v>
       </c>
       <c r="F87" t="b">
         <v>0</v>
@@ -2181,18 +2181,258 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>8.08</v>
+        <v>6.04</v>
       </c>
       <c r="C88" t="n">
-        <v>-1.48</v>
+        <v>-0.6899999999999999</v>
       </c>
       <c r="D88" t="n">
-        <v>6.4</v>
+        <v>8</v>
       </c>
       <c r="E88" t="n">
-        <v>2.99</v>
+        <v>2.85</v>
       </c>
       <c r="F88" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="n">
+        <v>5.56</v>
+      </c>
+      <c r="C89" t="n">
+        <v>-0.46</v>
+      </c>
+      <c r="D89" t="n">
+        <v>8</v>
+      </c>
+      <c r="E89" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="F89" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="n">
+        <v>5.09</v>
+      </c>
+      <c r="C90" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="D90" t="n">
+        <v>8</v>
+      </c>
+      <c r="E90" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="F90" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="C91" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="D91" t="n">
+        <v>8</v>
+      </c>
+      <c r="E91" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="F91" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="n">
+        <v>4.19</v>
+      </c>
+      <c r="C92" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="D92" t="n">
+        <v>8</v>
+      </c>
+      <c r="E92" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="F92" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="C93" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="D93" t="n">
+        <v>8</v>
+      </c>
+      <c r="E93" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="F93" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="C94" t="n">
+        <v>1</v>
+      </c>
+      <c r="D94" t="n">
+        <v>8</v>
+      </c>
+      <c r="E94" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="F94" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="C95" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="D95" t="n">
+        <v>8</v>
+      </c>
+      <c r="E95" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="F95" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="C96" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="D96" t="n">
+        <v>8</v>
+      </c>
+      <c r="E96" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="F96" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="C97" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="D97" t="n">
+        <v>8</v>
+      </c>
+      <c r="E97" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="F97" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="C98" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="D98" t="n">
+        <v>8</v>
+      </c>
+      <c r="E98" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="F98" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="C99" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="D99" t="n">
+        <v>8</v>
+      </c>
+      <c r="E99" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="F99" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="C100" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="D100" t="n">
+        <v>8</v>
+      </c>
+      <c r="E100" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="F100" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2207,7 +2447,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F88"/>
+  <dimension ref="A1:F100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2255,7 +2495,7 @@
         <v>2</v>
       </c>
       <c r="C2" t="n">
-        <v>57.24</v>
+        <v>44.75</v>
       </c>
       <c r="D2" t="n">
         <v>9.890000000000001</v>
@@ -2275,7 +2515,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>56.58</v>
+        <v>44.09</v>
       </c>
       <c r="D3" t="n">
         <v>9.789999999999999</v>
@@ -2295,7 +2535,7 @@
         <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>55.93</v>
+        <v>43.43</v>
       </c>
       <c r="D4" t="n">
         <v>9.699999999999999</v>
@@ -2315,7 +2555,7 @@
         <v>2</v>
       </c>
       <c r="C5" t="n">
-        <v>55.28</v>
+        <v>42.79</v>
       </c>
       <c r="D5" t="n">
         <v>9.619999999999999</v>
@@ -2335,7 +2575,7 @@
         <v>2</v>
       </c>
       <c r="C6" t="n">
-        <v>54.64</v>
+        <v>42.15</v>
       </c>
       <c r="D6" t="n">
         <v>9.550000000000001</v>
@@ -2355,7 +2595,7 @@
         <v>2</v>
       </c>
       <c r="C7" t="n">
-        <v>54</v>
+        <v>41.51</v>
       </c>
       <c r="D7" t="n">
         <v>9.49</v>
@@ -2375,7 +2615,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>53.37</v>
+        <v>40.88</v>
       </c>
       <c r="D8" t="n">
         <v>9.44</v>
@@ -2395,7 +2635,7 @@
         <v>2</v>
       </c>
       <c r="C9" t="n">
-        <v>52.74</v>
+        <v>40.25</v>
       </c>
       <c r="D9" t="n">
         <v>9.390000000000001</v>
@@ -2415,7 +2655,7 @@
         <v>2</v>
       </c>
       <c r="C10" t="n">
-        <v>52.11</v>
+        <v>39.62</v>
       </c>
       <c r="D10" t="n">
         <v>9.35</v>
@@ -2435,7 +2675,7 @@
         <v>2</v>
       </c>
       <c r="C11" t="n">
-        <v>51.49</v>
+        <v>39</v>
       </c>
       <c r="D11" t="n">
         <v>9.31</v>
@@ -2455,7 +2695,7 @@
         <v>2</v>
       </c>
       <c r="C12" t="n">
-        <v>50.87</v>
+        <v>38.38</v>
       </c>
       <c r="D12" t="n">
         <v>9.27</v>
@@ -2475,7 +2715,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>50.25</v>
+        <v>37.76</v>
       </c>
       <c r="D13" t="n">
         <v>9.24</v>
@@ -2495,7 +2735,7 @@
         <v>2</v>
       </c>
       <c r="C14" t="n">
-        <v>49.64</v>
+        <v>37.14</v>
       </c>
       <c r="D14" t="n">
         <v>9.220000000000001</v>
@@ -2515,7 +2755,7 @@
         <v>2</v>
       </c>
       <c r="C15" t="n">
-        <v>49.02</v>
+        <v>36.53</v>
       </c>
       <c r="D15" t="n">
         <v>9.19</v>
@@ -2535,7 +2775,7 @@
         <v>2</v>
       </c>
       <c r="C16" t="n">
-        <v>48.41</v>
+        <v>35.92</v>
       </c>
       <c r="D16" t="n">
         <v>9.17</v>
@@ -2555,7 +2795,7 @@
         <v>2</v>
       </c>
       <c r="C17" t="n">
-        <v>47.8</v>
+        <v>35.3</v>
       </c>
       <c r="D17" t="n">
         <v>9.15</v>
@@ -2575,7 +2815,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>47.19</v>
+        <v>34.69</v>
       </c>
       <c r="D18" t="n">
         <v>9.140000000000001</v>
@@ -2595,7 +2835,7 @@
         <v>2</v>
       </c>
       <c r="C19" t="n">
-        <v>46.58</v>
+        <v>34.09</v>
       </c>
       <c r="D19" t="n">
         <v>9.119999999999999</v>
@@ -2615,7 +2855,7 @@
         <v>2</v>
       </c>
       <c r="C20" t="n">
-        <v>45.97</v>
+        <v>33.48</v>
       </c>
       <c r="D20" t="n">
         <v>9.109999999999999</v>
@@ -2635,7 +2875,7 @@
         <v>2</v>
       </c>
       <c r="C21" t="n">
-        <v>45.36</v>
+        <v>32.87</v>
       </c>
       <c r="D21" t="n">
         <v>9.09</v>
@@ -2655,7 +2895,7 @@
         <v>2</v>
       </c>
       <c r="C22" t="n">
-        <v>44.76</v>
+        <v>32.26</v>
       </c>
       <c r="D22" t="n">
         <v>9.08</v>
@@ -2675,7 +2915,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>44.15</v>
+        <v>31.66</v>
       </c>
       <c r="D23" t="n">
         <v>9.07</v>
@@ -2695,7 +2935,7 @@
         <v>2</v>
       </c>
       <c r="C24" t="n">
-        <v>43.55</v>
+        <v>31.05</v>
       </c>
       <c r="D24" t="n">
         <v>9.07</v>
@@ -2715,7 +2955,7 @@
         <v>2</v>
       </c>
       <c r="C25" t="n">
-        <v>42.94</v>
+        <v>30.45</v>
       </c>
       <c r="D25" t="n">
         <v>9.06</v>
@@ -2735,7 +2975,7 @@
         <v>2</v>
       </c>
       <c r="C26" t="n">
-        <v>42.34</v>
+        <v>29.85</v>
       </c>
       <c r="D26" t="n">
         <v>9.050000000000001</v>
@@ -2755,7 +2995,7 @@
         <v>2</v>
       </c>
       <c r="C27" t="n">
-        <v>41.73</v>
+        <v>29.24</v>
       </c>
       <c r="D27" t="n">
         <v>9.050000000000001</v>
@@ -2775,7 +3015,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>41.13</v>
+        <v>28.64</v>
       </c>
       <c r="D28" t="n">
         <v>9.039999999999999</v>
@@ -2795,7 +3035,7 @@
         <v>2</v>
       </c>
       <c r="C29" t="n">
-        <v>40.53</v>
+        <v>28.04</v>
       </c>
       <c r="D29" t="n">
         <v>9.039999999999999</v>
@@ -2815,7 +3055,7 @@
         <v>2</v>
       </c>
       <c r="C30" t="n">
-        <v>39.93</v>
+        <v>27.43</v>
       </c>
       <c r="D30" t="n">
         <v>9.029999999999999</v>
@@ -2835,7 +3075,7 @@
         <v>2</v>
       </c>
       <c r="C31" t="n">
-        <v>39.32</v>
+        <v>26.83</v>
       </c>
       <c r="D31" t="n">
         <v>9.029999999999999</v>
@@ -2855,7 +3095,7 @@
         <v>2</v>
       </c>
       <c r="C32" t="n">
-        <v>38.72</v>
+        <v>26.23</v>
       </c>
       <c r="D32" t="n">
         <v>9.029999999999999</v>
@@ -2875,7 +3115,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>38.12</v>
+        <v>25.63</v>
       </c>
       <c r="D33" t="n">
         <v>9.02</v>
@@ -2895,7 +3135,7 @@
         <v>2</v>
       </c>
       <c r="C34" t="n">
-        <v>37.52</v>
+        <v>25.03</v>
       </c>
       <c r="D34" t="n">
         <v>9.02</v>
@@ -2915,7 +3155,7 @@
         <v>2</v>
       </c>
       <c r="C35" t="n">
-        <v>36.92</v>
+        <v>24.42</v>
       </c>
       <c r="D35" t="n">
         <v>9.02</v>
@@ -2935,7 +3175,7 @@
         <v>2</v>
       </c>
       <c r="C36" t="n">
-        <v>36.32</v>
+        <v>23.82</v>
       </c>
       <c r="D36" t="n">
         <v>9.02</v>
@@ -2955,7 +3195,7 @@
         <v>2</v>
       </c>
       <c r="C37" t="n">
-        <v>35.71</v>
+        <v>23.22</v>
       </c>
       <c r="D37" t="n">
         <v>9.01</v>
@@ -2975,7 +3215,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>35.11</v>
+        <v>22.62</v>
       </c>
       <c r="D38" t="n">
         <v>9.01</v>
@@ -2995,7 +3235,7 @@
         <v>2</v>
       </c>
       <c r="C39" t="n">
-        <v>34.51</v>
+        <v>22.02</v>
       </c>
       <c r="D39" t="n">
         <v>9.01</v>
@@ -3015,7 +3255,7 @@
         <v>2</v>
       </c>
       <c r="C40" t="n">
-        <v>33.91</v>
+        <v>21.42</v>
       </c>
       <c r="D40" t="n">
         <v>9.01</v>
@@ -3035,7 +3275,7 @@
         <v>2</v>
       </c>
       <c r="C41" t="n">
-        <v>33.31</v>
+        <v>20.82</v>
       </c>
       <c r="D41" t="n">
         <v>9.01</v>
@@ -3055,10 +3295,10 @@
         <v>2</v>
       </c>
       <c r="C42" t="n">
-        <v>32.71</v>
+        <v>20.22</v>
       </c>
       <c r="D42" t="n">
-        <v>9.01</v>
+        <v>8.51</v>
       </c>
       <c r="E42" t="n">
         <v>-1.57</v>
@@ -3075,10 +3315,10 @@
         <v>2</v>
       </c>
       <c r="C43" t="n">
-        <v>32.11</v>
+        <v>19.65</v>
       </c>
       <c r="D43" t="n">
-        <v>9.01</v>
+        <v>8.06</v>
       </c>
       <c r="E43" t="n">
         <v>-1.57</v>
@@ -3095,10 +3335,10 @@
         <v>2</v>
       </c>
       <c r="C44" t="n">
-        <v>31.51</v>
+        <v>19.11</v>
       </c>
       <c r="D44" t="n">
-        <v>9.01</v>
+        <v>7.67</v>
       </c>
       <c r="E44" t="n">
         <v>-1.57</v>
@@ -3115,10 +3355,10 @@
         <v>2</v>
       </c>
       <c r="C45" t="n">
-        <v>30.91</v>
+        <v>18.6</v>
       </c>
       <c r="D45" t="n">
-        <v>9.01</v>
+        <v>7.31</v>
       </c>
       <c r="E45" t="n">
         <v>-1.57</v>
@@ -3135,10 +3375,10 @@
         <v>2</v>
       </c>
       <c r="C46" t="n">
-        <v>30.31</v>
+        <v>18.11</v>
       </c>
       <c r="D46" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E46" t="n">
         <v>-1.57</v>
@@ -3155,10 +3395,10 @@
         <v>2</v>
       </c>
       <c r="C47" t="n">
-        <v>29.71</v>
+        <v>17.65</v>
       </c>
       <c r="D47" t="n">
-        <v>9</v>
+        <v>6.72</v>
       </c>
       <c r="E47" t="n">
         <v>-1.57</v>
@@ -3175,10 +3415,10 @@
         <v>2</v>
       </c>
       <c r="C48" t="n">
-        <v>29.11</v>
+        <v>17.2</v>
       </c>
       <c r="D48" t="n">
-        <v>9</v>
+        <v>5.98</v>
       </c>
       <c r="E48" t="n">
         <v>-1.57</v>
@@ -3195,10 +3435,10 @@
         <v>2</v>
       </c>
       <c r="C49" t="n">
-        <v>28.51</v>
+        <v>16.8</v>
       </c>
       <c r="D49" t="n">
-        <v>9</v>
+        <v>5.31</v>
       </c>
       <c r="E49" t="n">
         <v>-1.57</v>
@@ -3215,10 +3455,10 @@
         <v>2</v>
       </c>
       <c r="C50" t="n">
-        <v>27.91</v>
+        <v>16.45</v>
       </c>
       <c r="D50" t="n">
-        <v>9</v>
+        <v>4.72</v>
       </c>
       <c r="E50" t="n">
         <v>-1.57</v>
@@ -3235,10 +3475,10 @@
         <v>2</v>
       </c>
       <c r="C51" t="n">
-        <v>27.31</v>
+        <v>16.13</v>
       </c>
       <c r="D51" t="n">
-        <v>9</v>
+        <v>4.2</v>
       </c>
       <c r="E51" t="n">
         <v>-1.57</v>
@@ -3255,10 +3495,10 @@
         <v>2</v>
       </c>
       <c r="C52" t="n">
-        <v>26.71</v>
+        <v>15.85</v>
       </c>
       <c r="D52" t="n">
-        <v>9</v>
+        <v>3.73</v>
       </c>
       <c r="E52" t="n">
         <v>-1.57</v>
@@ -3275,10 +3515,10 @@
         <v>2</v>
       </c>
       <c r="C53" t="n">
-        <v>26.11</v>
+        <v>15.6</v>
       </c>
       <c r="D53" t="n">
-        <v>9</v>
+        <v>3.32</v>
       </c>
       <c r="E53" t="n">
         <v>-1.57</v>
@@ -3295,10 +3535,10 @@
         <v>2</v>
       </c>
       <c r="C54" t="n">
-        <v>25.51</v>
+        <v>15.38</v>
       </c>
       <c r="D54" t="n">
-        <v>9</v>
+        <v>2.95</v>
       </c>
       <c r="E54" t="n">
         <v>-1.57</v>
@@ -3315,10 +3555,10 @@
         <v>2</v>
       </c>
       <c r="C55" t="n">
-        <v>24.91</v>
+        <v>15.19</v>
       </c>
       <c r="D55" t="n">
-        <v>9</v>
+        <v>2.62</v>
       </c>
       <c r="E55" t="n">
         <v>-1.57</v>
@@ -3335,10 +3575,10 @@
         <v>2</v>
       </c>
       <c r="C56" t="n">
-        <v>24.31</v>
+        <v>15.01</v>
       </c>
       <c r="D56" t="n">
-        <v>9</v>
+        <v>2.33</v>
       </c>
       <c r="E56" t="n">
         <v>-1.57</v>
@@ -3355,10 +3595,10 @@
         <v>2</v>
       </c>
       <c r="C57" t="n">
-        <v>23.71</v>
+        <v>14.86</v>
       </c>
       <c r="D57" t="n">
-        <v>9</v>
+        <v>2.07</v>
       </c>
       <c r="E57" t="n">
         <v>-1.57</v>
@@ -3375,10 +3615,10 @@
         <v>2</v>
       </c>
       <c r="C58" t="n">
-        <v>23.11</v>
+        <v>14.72</v>
       </c>
       <c r="D58" t="n">
-        <v>9</v>
+        <v>1.84</v>
       </c>
       <c r="E58" t="n">
         <v>-1.57</v>
@@ -3395,10 +3635,10 @@
         <v>2</v>
       </c>
       <c r="C59" t="n">
-        <v>22.51</v>
+        <v>14.6</v>
       </c>
       <c r="D59" t="n">
-        <v>9</v>
+        <v>1.64</v>
       </c>
       <c r="E59" t="n">
         <v>-1.57</v>
@@ -3415,10 +3655,10 @@
         <v>2</v>
       </c>
       <c r="C60" t="n">
-        <v>21.91</v>
+        <v>14.49</v>
       </c>
       <c r="D60" t="n">
-        <v>9</v>
+        <v>1.45</v>
       </c>
       <c r="E60" t="n">
         <v>-1.57</v>
@@ -3435,10 +3675,10 @@
         <v>2</v>
       </c>
       <c r="C61" t="n">
-        <v>21.31</v>
+        <v>14.39</v>
       </c>
       <c r="D61" t="n">
-        <v>9</v>
+        <v>1.29</v>
       </c>
       <c r="E61" t="n">
         <v>-1.57</v>
@@ -3455,10 +3695,10 @@
         <v>2</v>
       </c>
       <c r="C62" t="n">
-        <v>20.71</v>
+        <v>14.3</v>
       </c>
       <c r="D62" t="n">
-        <v>9</v>
+        <v>1.15</v>
       </c>
       <c r="E62" t="n">
         <v>-1.57</v>
@@ -3475,10 +3715,10 @@
         <v>2</v>
       </c>
       <c r="C63" t="n">
-        <v>20.11</v>
+        <v>14.23</v>
       </c>
       <c r="D63" t="n">
-        <v>9</v>
+        <v>1.02</v>
       </c>
       <c r="E63" t="n">
         <v>-1.57</v>
@@ -3495,10 +3735,10 @@
         <v>2</v>
       </c>
       <c r="C64" t="n">
-        <v>19.51</v>
+        <v>14.16</v>
       </c>
       <c r="D64" t="n">
-        <v>9</v>
+        <v>0.91</v>
       </c>
       <c r="E64" t="n">
         <v>-1.57</v>
@@ -3515,10 +3755,10 @@
         <v>2</v>
       </c>
       <c r="C65" t="n">
-        <v>18.91</v>
+        <v>14.1</v>
       </c>
       <c r="D65" t="n">
-        <v>9</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="E65" t="n">
         <v>-1.57</v>
@@ -3535,10 +3775,10 @@
         <v>2</v>
       </c>
       <c r="C66" t="n">
-        <v>18.31</v>
+        <v>14.04</v>
       </c>
       <c r="D66" t="n">
-        <v>9</v>
+        <v>0.72</v>
       </c>
       <c r="E66" t="n">
         <v>-1.57</v>
@@ -3555,10 +3795,10 @@
         <v>2</v>
       </c>
       <c r="C67" t="n">
-        <v>17.71</v>
+        <v>14</v>
       </c>
       <c r="D67" t="n">
-        <v>9</v>
+        <v>0.64</v>
       </c>
       <c r="E67" t="n">
         <v>-1.57</v>
@@ -3575,10 +3815,10 @@
         <v>2</v>
       </c>
       <c r="C68" t="n">
-        <v>17.11</v>
+        <v>13.95</v>
       </c>
       <c r="D68" t="n">
-        <v>9</v>
+        <v>0.57</v>
       </c>
       <c r="E68" t="n">
         <v>-1.57</v>
@@ -3595,10 +3835,10 @@
         <v>2</v>
       </c>
       <c r="C69" t="n">
-        <v>16.51</v>
+        <v>13.92</v>
       </c>
       <c r="D69" t="n">
-        <v>9</v>
+        <v>0.5</v>
       </c>
       <c r="E69" t="n">
         <v>-1.57</v>
@@ -3615,10 +3855,10 @@
         <v>2</v>
       </c>
       <c r="C70" t="n">
-        <v>15.91</v>
+        <v>13.88</v>
       </c>
       <c r="D70" t="n">
-        <v>9</v>
+        <v>0.45</v>
       </c>
       <c r="E70" t="n">
         <v>-1.57</v>
@@ -3635,10 +3875,10 @@
         <v>2</v>
       </c>
       <c r="C71" t="n">
-        <v>15.31</v>
+        <v>13.85</v>
       </c>
       <c r="D71" t="n">
-        <v>9</v>
+        <v>0.4</v>
       </c>
       <c r="E71" t="n">
         <v>-1.57</v>
@@ -3655,10 +3895,10 @@
         <v>2</v>
       </c>
       <c r="C72" t="n">
-        <v>14.71</v>
+        <v>13.83</v>
       </c>
       <c r="D72" t="n">
-        <v>9</v>
+        <v>0.35</v>
       </c>
       <c r="E72" t="n">
         <v>-1.57</v>
@@ -3675,10 +3915,10 @@
         <v>2</v>
       </c>
       <c r="C73" t="n">
-        <v>14.11</v>
+        <v>13.8</v>
       </c>
       <c r="D73" t="n">
-        <v>9</v>
+        <v>0.31</v>
       </c>
       <c r="E73" t="n">
         <v>-1.57</v>
@@ -3695,10 +3935,10 @@
         <v>2</v>
       </c>
       <c r="C74" t="n">
-        <v>13.51</v>
+        <v>13.78</v>
       </c>
       <c r="D74" t="n">
-        <v>9</v>
+        <v>0.28</v>
       </c>
       <c r="E74" t="n">
         <v>-1.57</v>
@@ -3715,10 +3955,10 @@
         <v>2</v>
       </c>
       <c r="C75" t="n">
-        <v>12.91</v>
+        <v>13.76</v>
       </c>
       <c r="D75" t="n">
-        <v>9</v>
+        <v>0.25</v>
       </c>
       <c r="E75" t="n">
         <v>-1.57</v>
@@ -3732,16 +3972,16 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>2.04</v>
+        <v>2</v>
       </c>
       <c r="C76" t="n">
-        <v>12.31</v>
+        <v>13.75</v>
       </c>
       <c r="D76" t="n">
-        <v>9</v>
+        <v>0.22</v>
       </c>
       <c r="E76" t="n">
-        <v>-1.55</v>
+        <v>-1.57</v>
       </c>
       <c r="F76" t="b">
         <v>0</v>
@@ -3752,16 +3992,16 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="C77" t="n">
-        <v>11.71</v>
+        <v>13.73</v>
       </c>
       <c r="D77" t="n">
-        <v>9</v>
+        <v>0.2</v>
       </c>
       <c r="E77" t="n">
-        <v>-1.56</v>
+        <v>-1.57</v>
       </c>
       <c r="F77" t="b">
         <v>0</v>
@@ -3772,13 +4012,13 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="C78" t="n">
-        <v>11.11</v>
+        <v>13.72</v>
       </c>
       <c r="D78" t="n">
-        <v>9</v>
+        <v>0.17</v>
       </c>
       <c r="E78" t="n">
         <v>-1.57</v>
@@ -3792,16 +4032,16 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>1.97</v>
+        <v>2</v>
       </c>
       <c r="C79" t="n">
-        <v>10.51</v>
+        <v>13.71</v>
       </c>
       <c r="D79" t="n">
-        <v>9</v>
+        <v>0.16</v>
       </c>
       <c r="E79" t="n">
-        <v>-1.59</v>
+        <v>-1.57</v>
       </c>
       <c r="F79" t="b">
         <v>0</v>
@@ -3812,16 +4052,16 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="C80" t="n">
-        <v>9.92</v>
+        <v>13.7</v>
       </c>
       <c r="D80" t="n">
-        <v>9</v>
+        <v>0.64</v>
       </c>
       <c r="E80" t="n">
-        <v>-1.62</v>
+        <v>-1.57</v>
       </c>
       <c r="F80" t="b">
         <v>0</v>
@@ -3832,16 +4072,16 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>1.78</v>
+        <v>2</v>
       </c>
       <c r="C81" t="n">
-        <v>9.32</v>
+        <v>13.65</v>
       </c>
       <c r="D81" t="n">
-        <v>9</v>
+        <v>1.07</v>
       </c>
       <c r="E81" t="n">
-        <v>-1.65</v>
+        <v>-1.57</v>
       </c>
       <c r="F81" t="b">
         <v>0</v>
@@ -3852,16 +4092,16 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>1.65</v>
+        <v>2</v>
       </c>
       <c r="C82" t="n">
-        <v>8.74</v>
+        <v>13.58</v>
       </c>
       <c r="D82" t="n">
-        <v>9</v>
+        <v>1.45</v>
       </c>
       <c r="E82" t="n">
-        <v>-1.68</v>
+        <v>-1.57</v>
       </c>
       <c r="F82" t="b">
         <v>0</v>
@@ -3872,16 +4112,16 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="C83" t="n">
-        <v>8.16</v>
+        <v>13.49</v>
       </c>
       <c r="D83" t="n">
-        <v>9</v>
+        <v>1.79</v>
       </c>
       <c r="E83" t="n">
-        <v>-1.72</v>
+        <v>-1.57</v>
       </c>
       <c r="F83" t="b">
         <v>0</v>
@@ -3892,16 +4132,16 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>1.32</v>
+        <v>1.96</v>
       </c>
       <c r="C84" t="n">
-        <v>7.59</v>
+        <v>13.37</v>
       </c>
       <c r="D84" t="n">
-        <v>9</v>
+        <v>2.09</v>
       </c>
       <c r="E84" t="n">
-        <v>-1.76</v>
+        <v>-1.59</v>
       </c>
       <c r="F84" t="b">
         <v>0</v>
@@ -3912,16 +4152,16 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>1.12</v>
+        <v>1.99</v>
       </c>
       <c r="C85" t="n">
-        <v>7.02</v>
+        <v>13.24</v>
       </c>
       <c r="D85" t="n">
-        <v>9</v>
+        <v>2.36</v>
       </c>
       <c r="E85" t="n">
-        <v>-1.79</v>
+        <v>-1.57</v>
       </c>
       <c r="F85" t="b">
         <v>0</v>
@@ -3932,16 +4172,16 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>0.89</v>
+        <v>2.01</v>
       </c>
       <c r="C86" t="n">
-        <v>6.47</v>
+        <v>13.08</v>
       </c>
       <c r="D86" t="n">
-        <v>9</v>
+        <v>3.09</v>
       </c>
       <c r="E86" t="n">
-        <v>-1.83</v>
+        <v>-1.56</v>
       </c>
       <c r="F86" t="b">
         <v>0</v>
@@ -3952,16 +4192,16 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>0.64</v>
+        <v>2.04</v>
       </c>
       <c r="C87" t="n">
-        <v>5.92</v>
+        <v>12.88</v>
       </c>
       <c r="D87" t="n">
-        <v>9</v>
+        <v>3.75</v>
       </c>
       <c r="E87" t="n">
-        <v>-1.87</v>
+        <v>-1.55</v>
       </c>
       <c r="F87" t="b">
         <v>0</v>
@@ -3972,18 +4212,258 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>0.36</v>
+        <v>2.06</v>
       </c>
       <c r="C88" t="n">
-        <v>5.39</v>
+        <v>12.63</v>
       </c>
       <c r="D88" t="n">
-        <v>9</v>
+        <v>4.33</v>
       </c>
       <c r="E88" t="n">
-        <v>-1.91</v>
+        <v>-1.55</v>
       </c>
       <c r="F88" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="C89" t="n">
+        <v>12.34</v>
+      </c>
+      <c r="D89" t="n">
+        <v>4.85</v>
+      </c>
+      <c r="E89" t="n">
+        <v>-1.55</v>
+      </c>
+      <c r="F89" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="C90" t="n">
+        <v>12.02</v>
+      </c>
+      <c r="D90" t="n">
+        <v>5.31</v>
+      </c>
+      <c r="E90" t="n">
+        <v>-1.55</v>
+      </c>
+      <c r="F90" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="C91" t="n">
+        <v>11.66</v>
+      </c>
+      <c r="D91" t="n">
+        <v>5.72</v>
+      </c>
+      <c r="E91" t="n">
+        <v>-1.56</v>
+      </c>
+      <c r="F91" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="C92" t="n">
+        <v>11.28</v>
+      </c>
+      <c r="D92" t="n">
+        <v>6.09</v>
+      </c>
+      <c r="E92" t="n">
+        <v>-1.57</v>
+      </c>
+      <c r="F92" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="C93" t="n">
+        <v>10.88</v>
+      </c>
+      <c r="D93" t="n">
+        <v>6.41</v>
+      </c>
+      <c r="E93" t="n">
+        <v>-1.58</v>
+      </c>
+      <c r="F93" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="C94" t="n">
+        <v>10.45</v>
+      </c>
+      <c r="D94" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="E94" t="n">
+        <v>-1.6</v>
+      </c>
+      <c r="F94" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="C95" t="n">
+        <v>10.01</v>
+      </c>
+      <c r="D95" t="n">
+        <v>6.95</v>
+      </c>
+      <c r="E95" t="n">
+        <v>-1.62</v>
+      </c>
+      <c r="F95" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="C96" t="n">
+        <v>9.550000000000001</v>
+      </c>
+      <c r="D96" t="n">
+        <v>7.18</v>
+      </c>
+      <c r="E96" t="n">
+        <v>-1.64</v>
+      </c>
+      <c r="F96" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="C97" t="n">
+        <v>9.08</v>
+      </c>
+      <c r="D97" t="n">
+        <v>7.38</v>
+      </c>
+      <c r="E97" t="n">
+        <v>-1.67</v>
+      </c>
+      <c r="F97" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="C98" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="D98" t="n">
+        <v>7.56</v>
+      </c>
+      <c r="E98" t="n">
+        <v>-1.69</v>
+      </c>
+      <c r="F98" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="C99" t="n">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="D99" t="n">
+        <v>7.72</v>
+      </c>
+      <c r="E99" t="n">
+        <v>-1.72</v>
+      </c>
+      <c r="F99" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="C100" t="n">
+        <v>7.66</v>
+      </c>
+      <c r="D100" t="n">
+        <v>7.86</v>
+      </c>
+      <c r="E100" t="n">
+        <v>-1.75</v>
+      </c>
+      <c r="F100" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3998,7 +4478,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F88"/>
+  <dimension ref="A1:F100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4043,7 +4523,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-52.34</v>
+        <v>-58.01</v>
       </c>
       <c r="C2" t="n">
         <v>2</v>
@@ -4063,7 +4543,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>-51.68</v>
+        <v>-57.35</v>
       </c>
       <c r="C3" t="n">
         <v>2</v>
@@ -4083,7 +4563,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>-51.03</v>
+        <v>-56.7</v>
       </c>
       <c r="C4" t="n">
         <v>2</v>
@@ -4103,7 +4583,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>-50.38</v>
+        <v>-56.05</v>
       </c>
       <c r="C5" t="n">
         <v>2</v>
@@ -4123,7 +4603,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>-49.74</v>
+        <v>-55.41</v>
       </c>
       <c r="C6" t="n">
         <v>2</v>
@@ -4143,7 +4623,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>-49.1</v>
+        <v>-54.77</v>
       </c>
       <c r="C7" t="n">
         <v>2</v>
@@ -4163,7 +4643,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>-48.47</v>
+        <v>-54.14</v>
       </c>
       <c r="C8" t="n">
         <v>2</v>
@@ -4183,7 +4663,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>-47.84</v>
+        <v>-53.51</v>
       </c>
       <c r="C9" t="n">
         <v>2</v>
@@ -4203,7 +4683,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>-47.21</v>
+        <v>-52.88</v>
       </c>
       <c r="C10" t="n">
         <v>2</v>
@@ -4223,7 +4703,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>-46.59</v>
+        <v>-52.26</v>
       </c>
       <c r="C11" t="n">
         <v>2</v>
@@ -4243,7 +4723,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>-45.97</v>
+        <v>-51.64</v>
       </c>
       <c r="C12" t="n">
         <v>2</v>
@@ -4263,7 +4743,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>-45.35</v>
+        <v>-51.02</v>
       </c>
       <c r="C13" t="n">
         <v>2</v>
@@ -4283,7 +4763,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>-44.74</v>
+        <v>-50.41</v>
       </c>
       <c r="C14" t="n">
         <v>2</v>
@@ -4303,7 +4783,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>-44.12</v>
+        <v>-49.79</v>
       </c>
       <c r="C15" t="n">
         <v>2</v>
@@ -4323,7 +4803,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>-43.51</v>
+        <v>-49.18</v>
       </c>
       <c r="C16" t="n">
         <v>2</v>
@@ -4343,7 +4823,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>-42.9</v>
+        <v>-48.57</v>
       </c>
       <c r="C17" t="n">
         <v>2</v>
@@ -4363,7 +4843,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>-42.29</v>
+        <v>-47.96</v>
       </c>
       <c r="C18" t="n">
         <v>2</v>
@@ -4383,7 +4863,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>-41.68</v>
+        <v>-47.35</v>
       </c>
       <c r="C19" t="n">
         <v>2</v>
@@ -4403,7 +4883,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>-41.07</v>
+        <v>-46.74</v>
       </c>
       <c r="C20" t="n">
         <v>2</v>
@@ -4423,7 +4903,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>-40.46</v>
+        <v>-46.13</v>
       </c>
       <c r="C21" t="n">
         <v>2</v>
@@ -4443,7 +4923,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>-39.86</v>
+        <v>-45.53</v>
       </c>
       <c r="C22" t="n">
         <v>2</v>
@@ -4463,7 +4943,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>-39.25</v>
+        <v>-44.92</v>
       </c>
       <c r="C23" t="n">
         <v>2</v>
@@ -4483,7 +4963,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>-38.65</v>
+        <v>-44.32</v>
       </c>
       <c r="C24" t="n">
         <v>2</v>
@@ -4503,7 +4983,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>-38.04</v>
+        <v>-43.71</v>
       </c>
       <c r="C25" t="n">
         <v>2</v>
@@ -4523,7 +5003,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>-37.44</v>
+        <v>-43.11</v>
       </c>
       <c r="C26" t="n">
         <v>2</v>
@@ -4543,7 +5023,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>-36.83</v>
+        <v>-42.5</v>
       </c>
       <c r="C27" t="n">
         <v>2</v>
@@ -4563,7 +5043,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>-36.23</v>
+        <v>-41.9</v>
       </c>
       <c r="C28" t="n">
         <v>2</v>
@@ -4583,7 +5063,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>-35.63</v>
+        <v>-41.3</v>
       </c>
       <c r="C29" t="n">
         <v>2</v>
@@ -4603,7 +5083,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>-35.03</v>
+        <v>-40.7</v>
       </c>
       <c r="C30" t="n">
         <v>2</v>
@@ -4623,7 +5103,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>-34.42</v>
+        <v>-40.09</v>
       </c>
       <c r="C31" t="n">
         <v>2</v>
@@ -4643,7 +5123,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>-33.82</v>
+        <v>-39.49</v>
       </c>
       <c r="C32" t="n">
         <v>2</v>
@@ -4663,7 +5143,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>-33.22</v>
+        <v>-38.89</v>
       </c>
       <c r="C33" t="n">
         <v>2</v>
@@ -4683,7 +5163,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>-32.62</v>
+        <v>-38.29</v>
       </c>
       <c r="C34" t="n">
         <v>2</v>
@@ -4703,7 +5183,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>-32.02</v>
+        <v>-37.69</v>
       </c>
       <c r="C35" t="n">
         <v>2</v>
@@ -4723,7 +5203,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>-31.42</v>
+        <v>-37.09</v>
       </c>
       <c r="C36" t="n">
         <v>2</v>
@@ -4743,7 +5223,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>-30.81</v>
+        <v>-36.49</v>
       </c>
       <c r="C37" t="n">
         <v>2</v>
@@ -4763,7 +5243,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>-30.21</v>
+        <v>-35.88</v>
       </c>
       <c r="C38" t="n">
         <v>2</v>
@@ -4783,7 +5263,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>-29.61</v>
+        <v>-35.28</v>
       </c>
       <c r="C39" t="n">
         <v>2</v>
@@ -4803,7 +5283,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>-29.01</v>
+        <v>-34.68</v>
       </c>
       <c r="C40" t="n">
         <v>2</v>
@@ -4823,7 +5303,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>-28.41</v>
+        <v>-34.08</v>
       </c>
       <c r="C41" t="n">
         <v>2</v>
@@ -4843,7 +5323,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>-27.81</v>
+        <v>-33.48</v>
       </c>
       <c r="C42" t="n">
         <v>2</v>
@@ -4863,7 +5343,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>-27.21</v>
+        <v>-32.88</v>
       </c>
       <c r="C43" t="n">
         <v>2</v>
@@ -4883,7 +5363,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>-26.61</v>
+        <v>-32.28</v>
       </c>
       <c r="C44" t="n">
         <v>2</v>
@@ -4903,7 +5383,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>-26.01</v>
+        <v>-31.68</v>
       </c>
       <c r="C45" t="n">
         <v>2</v>
@@ -4923,7 +5403,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>-25.41</v>
+        <v>-31.08</v>
       </c>
       <c r="C46" t="n">
         <v>2</v>
@@ -4943,7 +5423,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>-24.81</v>
+        <v>-30.48</v>
       </c>
       <c r="C47" t="n">
         <v>2</v>
@@ -4963,7 +5443,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>-24.21</v>
+        <v>-29.88</v>
       </c>
       <c r="C48" t="n">
         <v>2</v>
@@ -4983,7 +5463,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>-23.61</v>
+        <v>-29.28</v>
       </c>
       <c r="C49" t="n">
         <v>2</v>
@@ -5003,7 +5483,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>-23.01</v>
+        <v>-28.68</v>
       </c>
       <c r="C50" t="n">
         <v>2</v>
@@ -5023,7 +5503,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>-22.41</v>
+        <v>-28.08</v>
       </c>
       <c r="C51" t="n">
         <v>2</v>
@@ -5043,7 +5523,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>-21.81</v>
+        <v>-27.48</v>
       </c>
       <c r="C52" t="n">
         <v>2</v>
@@ -5063,7 +5543,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>-21.21</v>
+        <v>-26.88</v>
       </c>
       <c r="C53" t="n">
         <v>2</v>
@@ -5083,7 +5563,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>-20.61</v>
+        <v>-26.28</v>
       </c>
       <c r="C54" t="n">
         <v>2</v>
@@ -5103,7 +5583,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>-20.01</v>
+        <v>-25.68</v>
       </c>
       <c r="C55" t="n">
         <v>2</v>
@@ -5123,13 +5603,13 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>-19.41</v>
+        <v>-25.08</v>
       </c>
       <c r="C56" t="n">
         <v>2</v>
       </c>
       <c r="D56" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="E56" t="n">
         <v>-0</v>
@@ -5143,13 +5623,13 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>-18.81</v>
+        <v>-24.51</v>
       </c>
       <c r="C57" t="n">
         <v>2</v>
       </c>
       <c r="D57" t="n">
-        <v>9</v>
+        <v>8.06</v>
       </c>
       <c r="E57" t="n">
         <v>-0</v>
@@ -5163,13 +5643,13 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>-18.21</v>
+        <v>-23.97</v>
       </c>
       <c r="C58" t="n">
         <v>2</v>
       </c>
       <c r="D58" t="n">
-        <v>9</v>
+        <v>7.66</v>
       </c>
       <c r="E58" t="n">
         <v>-0</v>
@@ -5183,13 +5663,13 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>-17.61</v>
+        <v>-23.46</v>
       </c>
       <c r="C59" t="n">
         <v>2</v>
       </c>
       <c r="D59" t="n">
-        <v>9</v>
+        <v>7.31</v>
       </c>
       <c r="E59" t="n">
         <v>-0</v>
@@ -5203,13 +5683,13 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>-17.01</v>
+        <v>-22.98</v>
       </c>
       <c r="C60" t="n">
         <v>2</v>
       </c>
       <c r="D60" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E60" t="n">
         <v>-0</v>
@@ -5223,13 +5703,13 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>-16.41</v>
+        <v>-22.51</v>
       </c>
       <c r="C61" t="n">
         <v>2</v>
       </c>
       <c r="D61" t="n">
-        <v>9</v>
+        <v>6.72</v>
       </c>
       <c r="E61" t="n">
         <v>-0</v>
@@ -5243,13 +5723,13 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>-15.81</v>
+        <v>-22.06</v>
       </c>
       <c r="C62" t="n">
         <v>2</v>
       </c>
       <c r="D62" t="n">
-        <v>9</v>
+        <v>5.97</v>
       </c>
       <c r="E62" t="n">
         <v>-0</v>
@@ -5263,13 +5743,13 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>-15.21</v>
+        <v>-21.66</v>
       </c>
       <c r="C63" t="n">
         <v>2</v>
       </c>
       <c r="D63" t="n">
-        <v>9</v>
+        <v>5.31</v>
       </c>
       <c r="E63" t="n">
         <v>-0</v>
@@ -5283,13 +5763,13 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>-14.61</v>
+        <v>-21.31</v>
       </c>
       <c r="C64" t="n">
         <v>2</v>
       </c>
       <c r="D64" t="n">
-        <v>9</v>
+        <v>4.72</v>
       </c>
       <c r="E64" t="n">
         <v>-0</v>
@@ -5303,13 +5783,13 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>-14.01</v>
+        <v>-20.99</v>
       </c>
       <c r="C65" t="n">
         <v>2</v>
       </c>
       <c r="D65" t="n">
-        <v>9</v>
+        <v>4.2</v>
       </c>
       <c r="E65" t="n">
         <v>-0</v>
@@ -5323,13 +5803,13 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>-13.41</v>
+        <v>-20.71</v>
       </c>
       <c r="C66" t="n">
         <v>2</v>
       </c>
       <c r="D66" t="n">
-        <v>9</v>
+        <v>3.73</v>
       </c>
       <c r="E66" t="n">
         <v>-0</v>
@@ -5343,16 +5823,16 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>-12.81</v>
+        <v>-20.47</v>
       </c>
       <c r="C67" t="n">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
-        <v>9</v>
+        <v>3.32</v>
       </c>
       <c r="E67" t="n">
-        <v>0.02</v>
+        <v>-0</v>
       </c>
       <c r="F67" t="b">
         <v>0</v>
@@ -5363,16 +5843,16 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>-12.21</v>
+        <v>-20.24</v>
       </c>
       <c r="C68" t="n">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
-        <v>9</v>
+        <v>2.95</v>
       </c>
       <c r="E68" t="n">
-        <v>0.03</v>
+        <v>-0</v>
       </c>
       <c r="F68" t="b">
         <v>0</v>
@@ -5383,16 +5863,16 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>-11.61</v>
+        <v>-20.05</v>
       </c>
       <c r="C69" t="n">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
-        <v>9</v>
+        <v>2.62</v>
       </c>
       <c r="E69" t="n">
-        <v>0.02</v>
+        <v>-0</v>
       </c>
       <c r="F69" t="b">
         <v>0</v>
@@ -5403,13 +5883,13 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>-11.01</v>
+        <v>-19.87</v>
       </c>
       <c r="C70" t="n">
-        <v>2.04</v>
+        <v>2</v>
       </c>
       <c r="D70" t="n">
-        <v>9</v>
+        <v>2.33</v>
       </c>
       <c r="E70" t="n">
         <v>-0</v>
@@ -5423,16 +5903,16 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>-10.41</v>
+        <v>-19.72</v>
       </c>
       <c r="C71" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
-        <v>9</v>
+        <v>2.07</v>
       </c>
       <c r="E71" t="n">
-        <v>-0.03</v>
+        <v>-0</v>
       </c>
       <c r="F71" t="b">
         <v>0</v>
@@ -5443,16 +5923,16 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>-9.82</v>
+        <v>-19.58</v>
       </c>
       <c r="C72" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
-        <v>9</v>
+        <v>1.84</v>
       </c>
       <c r="E72" t="n">
-        <v>-0.05</v>
+        <v>-0</v>
       </c>
       <c r="F72" t="b">
         <v>0</v>
@@ -5463,16 +5943,16 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>-9.23</v>
+        <v>-19.46</v>
       </c>
       <c r="C73" t="n">
-        <v>1.78</v>
+        <v>2</v>
       </c>
       <c r="D73" t="n">
-        <v>9</v>
+        <v>1.64</v>
       </c>
       <c r="E73" t="n">
-        <v>-0.09</v>
+        <v>-0</v>
       </c>
       <c r="F73" t="b">
         <v>0</v>
@@ -5483,16 +5963,16 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>-8.65</v>
+        <v>-19.35</v>
       </c>
       <c r="C74" t="n">
-        <v>1.64</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
-        <v>9</v>
+        <v>1.45</v>
       </c>
       <c r="E74" t="n">
-        <v>-0.12</v>
+        <v>-0</v>
       </c>
       <c r="F74" t="b">
         <v>0</v>
@@ -5503,16 +5983,16 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>-8.07</v>
+        <v>-19.25</v>
       </c>
       <c r="C75" t="n">
-        <v>1.48</v>
+        <v>2</v>
       </c>
       <c r="D75" t="n">
-        <v>9</v>
+        <v>1.29</v>
       </c>
       <c r="E75" t="n">
-        <v>-0.16</v>
+        <v>-0</v>
       </c>
       <c r="F75" t="b">
         <v>0</v>
@@ -5523,16 +6003,16 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>-7.5</v>
+        <v>-19.17</v>
       </c>
       <c r="C76" t="n">
-        <v>1.3</v>
+        <v>2</v>
       </c>
       <c r="D76" t="n">
-        <v>9</v>
+        <v>1.15</v>
       </c>
       <c r="E76" t="n">
-        <v>-0.19</v>
+        <v>-0</v>
       </c>
       <c r="F76" t="b">
         <v>0</v>
@@ -5543,16 +6023,16 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>-6.93</v>
+        <v>-19.09</v>
       </c>
       <c r="C77" t="n">
-        <v>1.09</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
-        <v>9</v>
+        <v>1.02</v>
       </c>
       <c r="E77" t="n">
-        <v>-0.23</v>
+        <v>-0</v>
       </c>
       <c r="F77" t="b">
         <v>0</v>
@@ -5563,16 +6043,16 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>-6.38</v>
+        <v>-19.02</v>
       </c>
       <c r="C78" t="n">
-        <v>0.86</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
-        <v>9</v>
+        <v>0.91</v>
       </c>
       <c r="E78" t="n">
-        <v>-0.27</v>
+        <v>-0</v>
       </c>
       <c r="F78" t="b">
         <v>0</v>
@@ -5583,16 +6063,16 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>-5.84</v>
+        <v>-18.96</v>
       </c>
       <c r="C79" t="n">
-        <v>0.61</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
-        <v>9</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="E79" t="n">
-        <v>-0.31</v>
+        <v>-0</v>
       </c>
       <c r="F79" t="b">
         <v>0</v>
@@ -5603,16 +6083,16 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>-5.3</v>
+        <v>-18.91</v>
       </c>
       <c r="C80" t="n">
-        <v>0.33</v>
+        <v>2</v>
       </c>
       <c r="D80" t="n">
-        <v>9</v>
+        <v>0.72</v>
       </c>
       <c r="E80" t="n">
-        <v>-0.35</v>
+        <v>-0</v>
       </c>
       <c r="F80" t="b">
         <v>0</v>
@@ -5623,16 +6103,16 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>-4.78</v>
+        <v>-18.86</v>
       </c>
       <c r="C81" t="n">
-        <v>0.03</v>
+        <v>2</v>
       </c>
       <c r="D81" t="n">
-        <v>9</v>
+        <v>0.64</v>
       </c>
       <c r="E81" t="n">
-        <v>-0.39</v>
+        <v>-0</v>
       </c>
       <c r="F81" t="b">
         <v>0</v>
@@ -5643,16 +6123,16 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>-4.28</v>
+        <v>-18.82</v>
       </c>
       <c r="C82" t="n">
-        <v>-0.3</v>
+        <v>2</v>
       </c>
       <c r="D82" t="n">
-        <v>9</v>
+        <v>0.57</v>
       </c>
       <c r="E82" t="n">
-        <v>-0.43</v>
+        <v>-0</v>
       </c>
       <c r="F82" t="b">
         <v>0</v>
@@ -5663,16 +6143,16 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>-3.79</v>
+        <v>-18.78</v>
       </c>
       <c r="C83" t="n">
-        <v>-0.64</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
-        <v>9</v>
+        <v>0.5</v>
       </c>
       <c r="E83" t="n">
-        <v>-0.48</v>
+        <v>-0</v>
       </c>
       <c r="F83" t="b">
         <v>0</v>
@@ -5683,16 +6163,16 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>-3.31</v>
+        <v>-18.75</v>
       </c>
       <c r="C84" t="n">
-        <v>-1.01</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
-        <v>9</v>
+        <v>0.45</v>
       </c>
       <c r="E84" t="n">
-        <v>-0.52</v>
+        <v>0</v>
       </c>
       <c r="F84" t="b">
         <v>0</v>
@@ -5703,16 +6183,16 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>-2.86</v>
+        <v>-18.72</v>
       </c>
       <c r="C85" t="n">
-        <v>-1.4</v>
+        <v>2</v>
       </c>
       <c r="D85" t="n">
-        <v>9</v>
+        <v>0.4</v>
       </c>
       <c r="E85" t="n">
-        <v>-0.5600000000000001</v>
+        <v>-0</v>
       </c>
       <c r="F85" t="b">
         <v>0</v>
@@ -5723,16 +6203,16 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>-2.42</v>
+        <v>-18.69</v>
       </c>
       <c r="C86" t="n">
-        <v>-1.81</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
-        <v>9</v>
+        <v>0.35</v>
       </c>
       <c r="E86" t="n">
-        <v>-0.61</v>
+        <v>0</v>
       </c>
       <c r="F86" t="b">
         <v>0</v>
@@ -5743,16 +6223,16 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>-2</v>
+        <v>-18.67</v>
       </c>
       <c r="C87" t="n">
-        <v>-2.23</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
-        <v>9</v>
+        <v>0.31</v>
       </c>
       <c r="E87" t="n">
-        <v>-0.65</v>
+        <v>-0</v>
       </c>
       <c r="F87" t="b">
         <v>0</v>
@@ -5763,18 +6243,258 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>-1.6</v>
+        <v>-18.64</v>
       </c>
       <c r="C88" t="n">
-        <v>-2.68</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
-        <v>9</v>
+        <v>0.28</v>
       </c>
       <c r="E88" t="n">
-        <v>-0.7</v>
+        <v>0</v>
       </c>
       <c r="F88" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="n">
+        <v>-18.63</v>
+      </c>
+      <c r="C89" t="n">
+        <v>2</v>
+      </c>
+      <c r="D89" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="E89" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F89" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="n">
+        <v>-18.61</v>
+      </c>
+      <c r="C90" t="n">
+        <v>2</v>
+      </c>
+      <c r="D90" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="E90" t="n">
+        <v>0</v>
+      </c>
+      <c r="F90" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="n">
+        <v>-18.59</v>
+      </c>
+      <c r="C91" t="n">
+        <v>2</v>
+      </c>
+      <c r="D91" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E91" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F91" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="n">
+        <v>-18.58</v>
+      </c>
+      <c r="C92" t="n">
+        <v>2</v>
+      </c>
+      <c r="D92" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="E92" t="n">
+        <v>0</v>
+      </c>
+      <c r="F92" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="n">
+        <v>-18.57</v>
+      </c>
+      <c r="C93" t="n">
+        <v>2</v>
+      </c>
+      <c r="D93" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="E93" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F93" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="n">
+        <v>-18.56</v>
+      </c>
+      <c r="C94" t="n">
+        <v>2</v>
+      </c>
+      <c r="D94" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="E94" t="n">
+        <v>0</v>
+      </c>
+      <c r="F94" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="n">
+        <v>-18.52</v>
+      </c>
+      <c r="C95" t="n">
+        <v>2</v>
+      </c>
+      <c r="D95" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="E95" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F95" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="n">
+        <v>-18.45</v>
+      </c>
+      <c r="C96" t="n">
+        <v>2</v>
+      </c>
+      <c r="D96" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="E96" t="n">
+        <v>0</v>
+      </c>
+      <c r="F96" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="n">
+        <v>-18.35</v>
+      </c>
+      <c r="C97" t="n">
+        <v>2</v>
+      </c>
+      <c r="D97" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="E97" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F97" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="n">
+        <v>-18.23</v>
+      </c>
+      <c r="C98" t="n">
+        <v>2</v>
+      </c>
+      <c r="D98" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="E98" t="n">
+        <v>0</v>
+      </c>
+      <c r="F98" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="n">
+        <v>-18.09</v>
+      </c>
+      <c r="C99" t="n">
+        <v>2</v>
+      </c>
+      <c r="D99" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="E99" t="n">
+        <v>0</v>
+      </c>
+      <c r="F99" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="n">
+        <v>-17.93</v>
+      </c>
+      <c r="C100" t="n">
+        <v>2</v>
+      </c>
+      <c r="D100" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="E100" t="n">
+        <v>0</v>
+      </c>
+      <c r="F100" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5789,7 +6509,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F88"/>
+  <dimension ref="A1:F100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5837,7 +6557,7 @@
         <v>-2</v>
       </c>
       <c r="C2" t="n">
-        <v>-50.38</v>
+        <v>-49.84</v>
       </c>
       <c r="D2" t="n">
         <v>9.890000000000001</v>
@@ -5857,7 +6577,7 @@
         <v>-2</v>
       </c>
       <c r="C3" t="n">
-        <v>-49.72</v>
+        <v>-49.18</v>
       </c>
       <c r="D3" t="n">
         <v>9.789999999999999</v>
@@ -5877,7 +6597,7 @@
         <v>-2</v>
       </c>
       <c r="C4" t="n">
-        <v>-49.06</v>
+        <v>-48.52</v>
       </c>
       <c r="D4" t="n">
         <v>9.699999999999999</v>
@@ -5897,7 +6617,7 @@
         <v>-2</v>
       </c>
       <c r="C5" t="n">
-        <v>-48.42</v>
+        <v>-47.88</v>
       </c>
       <c r="D5" t="n">
         <v>9.619999999999999</v>
@@ -5917,7 +6637,7 @@
         <v>-2</v>
       </c>
       <c r="C6" t="n">
-        <v>-47.77</v>
+        <v>-47.23</v>
       </c>
       <c r="D6" t="n">
         <v>9.550000000000001</v>
@@ -5937,7 +6657,7 @@
         <v>-2</v>
       </c>
       <c r="C7" t="n">
-        <v>-47.14</v>
+        <v>-46.6</v>
       </c>
       <c r="D7" t="n">
         <v>9.49</v>
@@ -5957,7 +6677,7 @@
         <v>-2</v>
       </c>
       <c r="C8" t="n">
-        <v>-46.51</v>
+        <v>-45.96</v>
       </c>
       <c r="D8" t="n">
         <v>9.44</v>
@@ -5977,7 +6697,7 @@
         <v>-2</v>
       </c>
       <c r="C9" t="n">
-        <v>-45.88</v>
+        <v>-45.34</v>
       </c>
       <c r="D9" t="n">
         <v>9.390000000000001</v>
@@ -5997,7 +6717,7 @@
         <v>-2</v>
       </c>
       <c r="C10" t="n">
-        <v>-45.25</v>
+        <v>-44.71</v>
       </c>
       <c r="D10" t="n">
         <v>9.35</v>
@@ -6017,7 +6737,7 @@
         <v>-2</v>
       </c>
       <c r="C11" t="n">
-        <v>-44.63</v>
+        <v>-44.09</v>
       </c>
       <c r="D11" t="n">
         <v>9.31</v>
@@ -6037,7 +6757,7 @@
         <v>-2</v>
       </c>
       <c r="C12" t="n">
-        <v>-44.01</v>
+        <v>-43.47</v>
       </c>
       <c r="D12" t="n">
         <v>9.27</v>
@@ -6057,7 +6777,7 @@
         <v>-2</v>
       </c>
       <c r="C13" t="n">
-        <v>-43.39</v>
+        <v>-42.85</v>
       </c>
       <c r="D13" t="n">
         <v>9.24</v>
@@ -6077,7 +6797,7 @@
         <v>-2</v>
       </c>
       <c r="C14" t="n">
-        <v>-42.77</v>
+        <v>-42.23</v>
       </c>
       <c r="D14" t="n">
         <v>9.220000000000001</v>
@@ -6097,7 +6817,7 @@
         <v>-2</v>
       </c>
       <c r="C15" t="n">
-        <v>-42.16</v>
+        <v>-41.62</v>
       </c>
       <c r="D15" t="n">
         <v>9.19</v>
@@ -6117,7 +6837,7 @@
         <v>-2</v>
       </c>
       <c r="C16" t="n">
-        <v>-41.54</v>
+        <v>-41</v>
       </c>
       <c r="D16" t="n">
         <v>9.17</v>
@@ -6137,7 +6857,7 @@
         <v>-2</v>
       </c>
       <c r="C17" t="n">
-        <v>-40.93</v>
+        <v>-40.39</v>
       </c>
       <c r="D17" t="n">
         <v>9.15</v>
@@ -6157,7 +6877,7 @@
         <v>-2</v>
       </c>
       <c r="C18" t="n">
-        <v>-40.32</v>
+        <v>-39.78</v>
       </c>
       <c r="D18" t="n">
         <v>9.140000000000001</v>
@@ -6177,7 +6897,7 @@
         <v>-2</v>
       </c>
       <c r="C19" t="n">
-        <v>-39.71</v>
+        <v>-39.17</v>
       </c>
       <c r="D19" t="n">
         <v>9.119999999999999</v>
@@ -6197,7 +6917,7 @@
         <v>-2</v>
       </c>
       <c r="C20" t="n">
-        <v>-39.11</v>
+        <v>-38.57</v>
       </c>
       <c r="D20" t="n">
         <v>9.109999999999999</v>
@@ -6217,7 +6937,7 @@
         <v>-2</v>
       </c>
       <c r="C21" t="n">
-        <v>-38.5</v>
+        <v>-37.96</v>
       </c>
       <c r="D21" t="n">
         <v>9.09</v>
@@ -6237,7 +6957,7 @@
         <v>-2</v>
       </c>
       <c r="C22" t="n">
-        <v>-37.89</v>
+        <v>-37.35</v>
       </c>
       <c r="D22" t="n">
         <v>9.08</v>
@@ -6257,7 +6977,7 @@
         <v>-2</v>
       </c>
       <c r="C23" t="n">
-        <v>-37.29</v>
+        <v>-36.75</v>
       </c>
       <c r="D23" t="n">
         <v>9.07</v>
@@ -6277,7 +6997,7 @@
         <v>-2</v>
       </c>
       <c r="C24" t="n">
-        <v>-36.68</v>
+        <v>-36.14</v>
       </c>
       <c r="D24" t="n">
         <v>9.07</v>
@@ -6297,7 +7017,7 @@
         <v>-2</v>
       </c>
       <c r="C25" t="n">
-        <v>-36.08</v>
+        <v>-35.54</v>
       </c>
       <c r="D25" t="n">
         <v>9.06</v>
@@ -6317,7 +7037,7 @@
         <v>-2</v>
       </c>
       <c r="C26" t="n">
-        <v>-35.47</v>
+        <v>-34.93</v>
       </c>
       <c r="D26" t="n">
         <v>9.050000000000001</v>
@@ -6337,7 +7057,7 @@
         <v>-2</v>
       </c>
       <c r="C27" t="n">
-        <v>-34.87</v>
+        <v>-34.33</v>
       </c>
       <c r="D27" t="n">
         <v>9.050000000000001</v>
@@ -6357,7 +7077,7 @@
         <v>-2</v>
       </c>
       <c r="C28" t="n">
-        <v>-34.27</v>
+        <v>-33.73</v>
       </c>
       <c r="D28" t="n">
         <v>9.039999999999999</v>
@@ -6377,7 +7097,7 @@
         <v>-2</v>
       </c>
       <c r="C29" t="n">
-        <v>-33.66</v>
+        <v>-33.12</v>
       </c>
       <c r="D29" t="n">
         <v>9.039999999999999</v>
@@ -6397,7 +7117,7 @@
         <v>-2</v>
       </c>
       <c r="C30" t="n">
-        <v>-33.06</v>
+        <v>-32.52</v>
       </c>
       <c r="D30" t="n">
         <v>9.029999999999999</v>
@@ -6417,7 +7137,7 @@
         <v>-2</v>
       </c>
       <c r="C31" t="n">
-        <v>-32.46</v>
+        <v>-31.92</v>
       </c>
       <c r="D31" t="n">
         <v>9.029999999999999</v>
@@ -6437,7 +7157,7 @@
         <v>-2</v>
       </c>
       <c r="C32" t="n">
-        <v>-31.86</v>
+        <v>-31.32</v>
       </c>
       <c r="D32" t="n">
         <v>9.029999999999999</v>
@@ -6457,7 +7177,7 @@
         <v>-2</v>
       </c>
       <c r="C33" t="n">
-        <v>-31.26</v>
+        <v>-30.72</v>
       </c>
       <c r="D33" t="n">
         <v>9.02</v>
@@ -6477,7 +7197,7 @@
         <v>-2</v>
       </c>
       <c r="C34" t="n">
-        <v>-30.65</v>
+        <v>-30.11</v>
       </c>
       <c r="D34" t="n">
         <v>9.02</v>
@@ -6497,7 +7217,7 @@
         <v>-2</v>
       </c>
       <c r="C35" t="n">
-        <v>-30.05</v>
+        <v>-29.51</v>
       </c>
       <c r="D35" t="n">
         <v>9.02</v>
@@ -6517,7 +7237,7 @@
         <v>-2</v>
       </c>
       <c r="C36" t="n">
-        <v>-29.45</v>
+        <v>-28.91</v>
       </c>
       <c r="D36" t="n">
         <v>9.02</v>
@@ -6537,7 +7257,7 @@
         <v>-2</v>
       </c>
       <c r="C37" t="n">
-        <v>-28.85</v>
+        <v>-28.31</v>
       </c>
       <c r="D37" t="n">
         <v>9.01</v>
@@ -6557,7 +7277,7 @@
         <v>-2</v>
       </c>
       <c r="C38" t="n">
-        <v>-28.25</v>
+        <v>-27.71</v>
       </c>
       <c r="D38" t="n">
         <v>9.01</v>
@@ -6577,7 +7297,7 @@
         <v>-2</v>
       </c>
       <c r="C39" t="n">
-        <v>-27.65</v>
+        <v>-27.11</v>
       </c>
       <c r="D39" t="n">
         <v>9.01</v>
@@ -6597,7 +7317,7 @@
         <v>-2</v>
       </c>
       <c r="C40" t="n">
-        <v>-27.05</v>
+        <v>-26.51</v>
       </c>
       <c r="D40" t="n">
         <v>9.01</v>
@@ -6617,7 +7337,7 @@
         <v>-2</v>
       </c>
       <c r="C41" t="n">
-        <v>-26.45</v>
+        <v>-25.91</v>
       </c>
       <c r="D41" t="n">
         <v>9.01</v>
@@ -6637,10 +7357,10 @@
         <v>-2</v>
       </c>
       <c r="C42" t="n">
-        <v>-25.85</v>
+        <v>-25.31</v>
       </c>
       <c r="D42" t="n">
-        <v>9.01</v>
+        <v>8.51</v>
       </c>
       <c r="E42" t="n">
         <v>1.57</v>
@@ -6657,10 +7377,10 @@
         <v>-2</v>
       </c>
       <c r="C43" t="n">
-        <v>-25.25</v>
+        <v>-24.74</v>
       </c>
       <c r="D43" t="n">
-        <v>9.01</v>
+        <v>8.06</v>
       </c>
       <c r="E43" t="n">
         <v>1.57</v>
@@ -6677,10 +7397,10 @@
         <v>-2</v>
       </c>
       <c r="C44" t="n">
-        <v>-24.65</v>
+        <v>-24.2</v>
       </c>
       <c r="D44" t="n">
-        <v>9.01</v>
+        <v>7.67</v>
       </c>
       <c r="E44" t="n">
         <v>1.57</v>
@@ -6697,10 +7417,10 @@
         <v>-2</v>
       </c>
       <c r="C45" t="n">
-        <v>-24.05</v>
+        <v>-23.69</v>
       </c>
       <c r="D45" t="n">
-        <v>9.01</v>
+        <v>7.31</v>
       </c>
       <c r="E45" t="n">
         <v>1.57</v>
@@ -6717,10 +7437,10 @@
         <v>-2</v>
       </c>
       <c r="C46" t="n">
-        <v>-23.44</v>
+        <v>-23.2</v>
       </c>
       <c r="D46" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E46" t="n">
         <v>1.57</v>
@@ -6737,10 +7457,10 @@
         <v>-2</v>
       </c>
       <c r="C47" t="n">
-        <v>-22.84</v>
+        <v>-22.74</v>
       </c>
       <c r="D47" t="n">
-        <v>9</v>
+        <v>6.72</v>
       </c>
       <c r="E47" t="n">
         <v>1.57</v>
@@ -6757,10 +7477,10 @@
         <v>-2</v>
       </c>
       <c r="C48" t="n">
-        <v>-22.24</v>
+        <v>-22.29</v>
       </c>
       <c r="D48" t="n">
-        <v>9</v>
+        <v>5.98</v>
       </c>
       <c r="E48" t="n">
         <v>1.57</v>
@@ -6777,10 +7497,10 @@
         <v>-2</v>
       </c>
       <c r="C49" t="n">
-        <v>-21.64</v>
+        <v>-21.89</v>
       </c>
       <c r="D49" t="n">
-        <v>9</v>
+        <v>5.31</v>
       </c>
       <c r="E49" t="n">
         <v>1.57</v>
@@ -6797,10 +7517,10 @@
         <v>-2</v>
       </c>
       <c r="C50" t="n">
-        <v>-21.04</v>
+        <v>-21.54</v>
       </c>
       <c r="D50" t="n">
-        <v>9</v>
+        <v>4.72</v>
       </c>
       <c r="E50" t="n">
         <v>1.57</v>
@@ -6817,10 +7537,10 @@
         <v>-2</v>
       </c>
       <c r="C51" t="n">
-        <v>-20.44</v>
+        <v>-21.22</v>
       </c>
       <c r="D51" t="n">
-        <v>9</v>
+        <v>4.2</v>
       </c>
       <c r="E51" t="n">
         <v>1.57</v>
@@ -6837,10 +7557,10 @@
         <v>-2</v>
       </c>
       <c r="C52" t="n">
-        <v>-19.84</v>
+        <v>-20.94</v>
       </c>
       <c r="D52" t="n">
-        <v>9</v>
+        <v>3.73</v>
       </c>
       <c r="E52" t="n">
         <v>1.57</v>
@@ -6857,10 +7577,10 @@
         <v>-2</v>
       </c>
       <c r="C53" t="n">
-        <v>-19.24</v>
+        <v>-20.69</v>
       </c>
       <c r="D53" t="n">
-        <v>9</v>
+        <v>3.32</v>
       </c>
       <c r="E53" t="n">
         <v>1.57</v>
@@ -6877,10 +7597,10 @@
         <v>-2</v>
       </c>
       <c r="C54" t="n">
-        <v>-18.64</v>
+        <v>-20.47</v>
       </c>
       <c r="D54" t="n">
-        <v>9</v>
+        <v>2.95</v>
       </c>
       <c r="E54" t="n">
         <v>1.57</v>
@@ -6897,10 +7617,10 @@
         <v>-2</v>
       </c>
       <c r="C55" t="n">
-        <v>-18.04</v>
+        <v>-20.27</v>
       </c>
       <c r="D55" t="n">
-        <v>9</v>
+        <v>2.62</v>
       </c>
       <c r="E55" t="n">
         <v>1.57</v>
@@ -6917,10 +7637,10 @@
         <v>-2</v>
       </c>
       <c r="C56" t="n">
-        <v>-17.44</v>
+        <v>-20.1</v>
       </c>
       <c r="D56" t="n">
-        <v>9</v>
+        <v>2.33</v>
       </c>
       <c r="E56" t="n">
         <v>1.57</v>
@@ -6937,10 +7657,10 @@
         <v>-2</v>
       </c>
       <c r="C57" t="n">
-        <v>-16.84</v>
+        <v>-19.94</v>
       </c>
       <c r="D57" t="n">
-        <v>9</v>
+        <v>2.07</v>
       </c>
       <c r="E57" t="n">
         <v>1.57</v>
@@ -6957,10 +7677,10 @@
         <v>-2</v>
       </c>
       <c r="C58" t="n">
-        <v>-16.24</v>
+        <v>-19.81</v>
       </c>
       <c r="D58" t="n">
-        <v>9</v>
+        <v>1.84</v>
       </c>
       <c r="E58" t="n">
         <v>1.57</v>
@@ -6977,10 +7697,10 @@
         <v>-2</v>
       </c>
       <c r="C59" t="n">
-        <v>-15.64</v>
+        <v>-19.68</v>
       </c>
       <c r="D59" t="n">
-        <v>9</v>
+        <v>1.64</v>
       </c>
       <c r="E59" t="n">
         <v>1.57</v>
@@ -6997,10 +7717,10 @@
         <v>-2</v>
       </c>
       <c r="C60" t="n">
-        <v>-15.04</v>
+        <v>-19.57</v>
       </c>
       <c r="D60" t="n">
-        <v>9</v>
+        <v>1.45</v>
       </c>
       <c r="E60" t="n">
         <v>1.57</v>
@@ -7017,10 +7737,10 @@
         <v>-2</v>
       </c>
       <c r="C61" t="n">
-        <v>-14.44</v>
+        <v>-19.48</v>
       </c>
       <c r="D61" t="n">
-        <v>9</v>
+        <v>1.29</v>
       </c>
       <c r="E61" t="n">
         <v>1.57</v>
@@ -7037,10 +7757,10 @@
         <v>-2</v>
       </c>
       <c r="C62" t="n">
-        <v>-13.84</v>
+        <v>-19.39</v>
       </c>
       <c r="D62" t="n">
-        <v>9</v>
+        <v>1.15</v>
       </c>
       <c r="E62" t="n">
         <v>1.57</v>
@@ -7057,10 +7777,10 @@
         <v>-2</v>
       </c>
       <c r="C63" t="n">
-        <v>-13.24</v>
+        <v>-19.31</v>
       </c>
       <c r="D63" t="n">
-        <v>9</v>
+        <v>1.02</v>
       </c>
       <c r="E63" t="n">
         <v>1.57</v>
@@ -7074,16 +7794,16 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>-2.06</v>
+        <v>-2</v>
       </c>
       <c r="C64" t="n">
-        <v>-12.64</v>
+        <v>-19.25</v>
       </c>
       <c r="D64" t="n">
-        <v>9</v>
+        <v>0.91</v>
       </c>
       <c r="E64" t="n">
-        <v>1.59</v>
+        <v>1.57</v>
       </c>
       <c r="F64" t="b">
         <v>0</v>
@@ -7094,16 +7814,16 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>-2.07</v>
+        <v>-2</v>
       </c>
       <c r="C65" t="n">
-        <v>-12.05</v>
+        <v>-19.19</v>
       </c>
       <c r="D65" t="n">
-        <v>9</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="E65" t="n">
-        <v>1.59</v>
+        <v>1.57</v>
       </c>
       <c r="F65" t="b">
         <v>0</v>
@@ -7114,16 +7834,16 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>-2.06</v>
+        <v>-2</v>
       </c>
       <c r="C66" t="n">
-        <v>-11.45</v>
+        <v>-19.13</v>
       </c>
       <c r="D66" t="n">
-        <v>9</v>
+        <v>0.72</v>
       </c>
       <c r="E66" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="F66" t="b">
         <v>0</v>
@@ -7134,16 +7854,16 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>-2.02</v>
+        <v>-2</v>
       </c>
       <c r="C67" t="n">
-        <v>-10.85</v>
+        <v>-19.08</v>
       </c>
       <c r="D67" t="n">
-        <v>9</v>
+        <v>0.64</v>
       </c>
       <c r="E67" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="F67" t="b">
         <v>0</v>
@@ -7154,16 +7874,16 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>-1.95</v>
+        <v>-2</v>
       </c>
       <c r="C68" t="n">
-        <v>-10.25</v>
+        <v>-19.04</v>
       </c>
       <c r="D68" t="n">
-        <v>9</v>
+        <v>0.57</v>
       </c>
       <c r="E68" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="F68" t="b">
         <v>0</v>
@@ -7174,16 +7894,16 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>-1.85</v>
+        <v>-2</v>
       </c>
       <c r="C69" t="n">
-        <v>-9.66</v>
+        <v>-19</v>
       </c>
       <c r="D69" t="n">
-        <v>9</v>
+        <v>0.5</v>
       </c>
       <c r="E69" t="n">
-        <v>1.51</v>
+        <v>1.57</v>
       </c>
       <c r="F69" t="b">
         <v>0</v>
@@ -7194,16 +7914,16 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>-1.74</v>
+        <v>-2</v>
       </c>
       <c r="C70" t="n">
-        <v>-9.07</v>
+        <v>-18.97</v>
       </c>
       <c r="D70" t="n">
-        <v>9</v>
+        <v>0.45</v>
       </c>
       <c r="E70" t="n">
-        <v>1.48</v>
+        <v>1.57</v>
       </c>
       <c r="F70" t="b">
         <v>0</v>
@@ -7214,16 +7934,16 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>-1.59</v>
+        <v>-2</v>
       </c>
       <c r="C71" t="n">
-        <v>-8.49</v>
+        <v>-18.94</v>
       </c>
       <c r="D71" t="n">
-        <v>9</v>
+        <v>0.4</v>
       </c>
       <c r="E71" t="n">
-        <v>1.44</v>
+        <v>1.57</v>
       </c>
       <c r="F71" t="b">
         <v>0</v>
@@ -7234,16 +7954,16 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>-1.43</v>
+        <v>-2</v>
       </c>
       <c r="C72" t="n">
-        <v>-7.91</v>
+        <v>-18.91</v>
       </c>
       <c r="D72" t="n">
-        <v>9</v>
+        <v>0.35</v>
       </c>
       <c r="E72" t="n">
-        <v>1.41</v>
+        <v>1.57</v>
       </c>
       <c r="F72" t="b">
         <v>0</v>
@@ -7254,16 +7974,16 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>-1.24</v>
+        <v>-2</v>
       </c>
       <c r="C73" t="n">
-        <v>-7.34</v>
+        <v>-18.89</v>
       </c>
       <c r="D73" t="n">
-        <v>9</v>
+        <v>0.31</v>
       </c>
       <c r="E73" t="n">
-        <v>1.37</v>
+        <v>1.57</v>
       </c>
       <c r="F73" t="b">
         <v>0</v>
@@ -7274,16 +7994,16 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>-1.03</v>
+        <v>-2</v>
       </c>
       <c r="C74" t="n">
-        <v>-6.78</v>
+        <v>-18.87</v>
       </c>
       <c r="D74" t="n">
-        <v>9</v>
+        <v>0.28</v>
       </c>
       <c r="E74" t="n">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="F74" t="b">
         <v>0</v>
@@ -7294,16 +8014,16 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>-0.79</v>
+        <v>-2</v>
       </c>
       <c r="C75" t="n">
-        <v>-6.23</v>
+        <v>-18.85</v>
       </c>
       <c r="D75" t="n">
-        <v>9</v>
+        <v>0.25</v>
       </c>
       <c r="E75" t="n">
-        <v>1.29</v>
+        <v>1.57</v>
       </c>
       <c r="F75" t="b">
         <v>0</v>
@@ -7314,16 +8034,16 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>-0.53</v>
+        <v>-2</v>
       </c>
       <c r="C76" t="n">
-        <v>-5.69</v>
+        <v>-18.83</v>
       </c>
       <c r="D76" t="n">
-        <v>9</v>
+        <v>0.22</v>
       </c>
       <c r="E76" t="n">
-        <v>1.25</v>
+        <v>1.57</v>
       </c>
       <c r="F76" t="b">
         <v>0</v>
@@ -7334,16 +8054,16 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>-0.24</v>
+        <v>-2</v>
       </c>
       <c r="C77" t="n">
-        <v>-5.16</v>
+        <v>-18.82</v>
       </c>
       <c r="D77" t="n">
-        <v>9</v>
+        <v>0.2</v>
       </c>
       <c r="E77" t="n">
-        <v>1.21</v>
+        <v>1.57</v>
       </c>
       <c r="F77" t="b">
         <v>0</v>
@@ -7354,16 +8074,16 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>0.06</v>
+        <v>-2</v>
       </c>
       <c r="C78" t="n">
-        <v>-4.64</v>
+        <v>-18.81</v>
       </c>
       <c r="D78" t="n">
-        <v>9</v>
+        <v>0.17</v>
       </c>
       <c r="E78" t="n">
-        <v>1.17</v>
+        <v>1.57</v>
       </c>
       <c r="F78" t="b">
         <v>0</v>
@@ -7374,16 +8094,16 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>0.39</v>
+        <v>-2</v>
       </c>
       <c r="C79" t="n">
-        <v>-4.14</v>
+        <v>-18.79</v>
       </c>
       <c r="D79" t="n">
-        <v>9</v>
+        <v>0.16</v>
       </c>
       <c r="E79" t="n">
-        <v>1.12</v>
+        <v>1.57</v>
       </c>
       <c r="F79" t="b">
         <v>0</v>
@@ -7394,16 +8114,16 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>0.74</v>
+        <v>-2</v>
       </c>
       <c r="C80" t="n">
-        <v>-3.66</v>
+        <v>-18.78</v>
       </c>
       <c r="D80" t="n">
-        <v>9</v>
+        <v>0.14</v>
       </c>
       <c r="E80" t="n">
-        <v>1.08</v>
+        <v>1.57</v>
       </c>
       <c r="F80" t="b">
         <v>0</v>
@@ -7414,16 +8134,16 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>1.12</v>
+        <v>-2</v>
       </c>
       <c r="C81" t="n">
-        <v>-3.19</v>
+        <v>-18.78</v>
       </c>
       <c r="D81" t="n">
-        <v>9</v>
+        <v>0.12</v>
       </c>
       <c r="E81" t="n">
-        <v>1.04</v>
+        <v>1.57</v>
       </c>
       <c r="F81" t="b">
         <v>0</v>
@@ -7434,16 +8154,16 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>1.51</v>
+        <v>-2</v>
       </c>
       <c r="C82" t="n">
-        <v>-2.73</v>
+        <v>-18.77</v>
       </c>
       <c r="D82" t="n">
-        <v>9</v>
+        <v>0.11</v>
       </c>
       <c r="E82" t="n">
-        <v>0.99</v>
+        <v>1.57</v>
       </c>
       <c r="F82" t="b">
         <v>0</v>
@@ -7454,16 +8174,16 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>1.92</v>
+        <v>-2</v>
       </c>
       <c r="C83" t="n">
-        <v>-2.3</v>
+        <v>-18.76</v>
       </c>
       <c r="D83" t="n">
-        <v>9</v>
+        <v>0.1</v>
       </c>
       <c r="E83" t="n">
-        <v>0.95</v>
+        <v>1.57</v>
       </c>
       <c r="F83" t="b">
         <v>0</v>
@@ -7474,16 +8194,16 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>2.36</v>
+        <v>-2</v>
       </c>
       <c r="C84" t="n">
-        <v>-1.88</v>
+        <v>-18.75</v>
       </c>
       <c r="D84" t="n">
-        <v>9</v>
+        <v>0.09</v>
       </c>
       <c r="E84" t="n">
-        <v>0.91</v>
+        <v>1.57</v>
       </c>
       <c r="F84" t="b">
         <v>0</v>
@@ -7494,16 +8214,16 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>2.81</v>
+        <v>-2</v>
       </c>
       <c r="C85" t="n">
-        <v>-1.49</v>
+        <v>-18.75</v>
       </c>
       <c r="D85" t="n">
-        <v>9</v>
+        <v>0.08</v>
       </c>
       <c r="E85" t="n">
-        <v>0.86</v>
+        <v>1.57</v>
       </c>
       <c r="F85" t="b">
         <v>0</v>
@@ -7514,16 +8234,16 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>3.28</v>
+        <v>-2</v>
       </c>
       <c r="C86" t="n">
-        <v>-1.12</v>
+        <v>-18.74</v>
       </c>
       <c r="D86" t="n">
-        <v>9</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E86" t="n">
-        <v>0.82</v>
+        <v>1.57</v>
       </c>
       <c r="F86" t="b">
         <v>0</v>
@@ -7534,16 +8254,16 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>3.77</v>
+        <v>-2</v>
       </c>
       <c r="C87" t="n">
-        <v>-0.77</v>
+        <v>-18.74</v>
       </c>
       <c r="D87" t="n">
-        <v>9</v>
+        <v>0.06</v>
       </c>
       <c r="E87" t="n">
-        <v>0.77</v>
+        <v>1.57</v>
       </c>
       <c r="F87" t="b">
         <v>0</v>
@@ -7554,18 +8274,258 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>4.25</v>
+        <v>-2</v>
       </c>
       <c r="C88" t="n">
-        <v>-0.42</v>
+        <v>-18.74</v>
       </c>
       <c r="D88" t="n">
-        <v>9</v>
+        <v>0.05</v>
       </c>
       <c r="E88" t="n">
-        <v>0.72</v>
+        <v>1.57</v>
       </c>
       <c r="F88" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="n">
+        <v>-2</v>
+      </c>
+      <c r="C89" t="n">
+        <v>-18.73</v>
+      </c>
+      <c r="D89" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="E89" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="F89" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="n">
+        <v>-2</v>
+      </c>
+      <c r="C90" t="n">
+        <v>-18.73</v>
+      </c>
+      <c r="D90" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="E90" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="F90" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="n">
+        <v>-2</v>
+      </c>
+      <c r="C91" t="n">
+        <v>-18.73</v>
+      </c>
+      <c r="D91" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="E91" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="F91" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="n">
+        <v>-2</v>
+      </c>
+      <c r="C92" t="n">
+        <v>-18.73</v>
+      </c>
+      <c r="D92" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="E92" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="F92" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="n">
+        <v>-2</v>
+      </c>
+      <c r="C93" t="n">
+        <v>-18.73</v>
+      </c>
+      <c r="D93" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="E93" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="F93" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="n">
+        <v>-2</v>
+      </c>
+      <c r="C94" t="n">
+        <v>-18.73</v>
+      </c>
+      <c r="D94" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="E94" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="F94" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="n">
+        <v>-2</v>
+      </c>
+      <c r="C95" t="n">
+        <v>-18.72</v>
+      </c>
+      <c r="D95" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="E95" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="F95" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="n">
+        <v>-2</v>
+      </c>
+      <c r="C96" t="n">
+        <v>-18.72</v>
+      </c>
+      <c r="D96" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="E96" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="F96" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="n">
+        <v>-2</v>
+      </c>
+      <c r="C97" t="n">
+        <v>-18.72</v>
+      </c>
+      <c r="D97" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="E97" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="F97" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="n">
+        <v>-2</v>
+      </c>
+      <c r="C98" t="n">
+        <v>-18.72</v>
+      </c>
+      <c r="D98" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="E98" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="F98" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="n">
+        <v>-2</v>
+      </c>
+      <c r="C99" t="n">
+        <v>-18.72</v>
+      </c>
+      <c r="D99" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E99" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="F99" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="n">
+        <v>-2</v>
+      </c>
+      <c r="C100" t="n">
+        <v>-18.72</v>
+      </c>
+      <c r="D100" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E100" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="F100" t="b">
         <v>0</v>
       </c>
     </row>
